--- a/assets/tab/funtry.xlsx
+++ b/assets/tab/funtry.xlsx
@@ -18,7 +18,7 @@
     <sheet name="hongkong" sheetId="4" r:id="rId4"/>
     <sheet name="usa" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>title</t>
   </si>
@@ -259,6 +259,111 @@
   </si>
   <si>
     <t>Denver</t>
+  </si>
+  <si>
+    <t>Royal View Hotel</t>
+  </si>
+  <si>
+    <t>lines</t>
+  </si>
+  <si>
+    <t>Hong Kong International Airport</t>
+  </si>
+  <si>
+    <t>Hong Kong Baptist University</t>
+  </si>
+  <si>
+    <t>Regal Oriental Hotel</t>
+  </si>
+  <si>
+    <t>ibis Central and Sheung Wan</t>
+  </si>
+  <si>
+    <t>Ovolo Southside</t>
+  </si>
+  <si>
+    <t>Repulse Bay</t>
+  </si>
+  <si>
+    <t>Shek O Bay</t>
+  </si>
+  <si>
+    <t>Stanley Promenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siu Sai Wan Promenade </t>
+  </si>
+  <si>
+    <t>Ap Lei Chau</t>
+  </si>
+  <si>
+    <t>Sok Kwu Wan</t>
+  </si>
+  <si>
+    <t>Hung Shing Ye Beach</t>
+  </si>
+  <si>
+    <t>Yung Shue Wan</t>
+  </si>
+  <si>
+    <t>Aberdeen Promenade</t>
+  </si>
+  <si>
+    <t>Shau Kei Wan</t>
+  </si>
+  <si>
+    <t>Quarry Bay</t>
+  </si>
+  <si>
+    <t>Causeway Bay</t>
+  </si>
+  <si>
+    <t>Wan Chai</t>
+  </si>
+  <si>
+    <t>Victoria Peak</t>
+  </si>
+  <si>
+    <t>North Point</t>
+  </si>
+  <si>
+    <t>Kowloon Bay</t>
+  </si>
+  <si>
+    <t>Tsim Sha Tsui</t>
+  </si>
+  <si>
+    <t>China Hong Kong Ferry Terminal</t>
+  </si>
+  <si>
+    <t>Tian Tan Buddha</t>
+  </si>
+  <si>
+    <t>Kowloon Walled City</t>
+  </si>
+  <si>
+    <t>Sai Wan War Cemetery</t>
+  </si>
+  <si>
+    <t>Hen Keng</t>
+  </si>
+  <si>
+    <t>Hong Kong Heritage Museum</t>
+  </si>
+  <si>
+    <t>Sham Shui Po</t>
+  </si>
+  <si>
+    <t>Sha Tin Racecourse</t>
+  </si>
+  <si>
+    <t>Hong Kong Gold Coast</t>
+  </si>
+  <si>
+    <t>Butterfly Beach</t>
+  </si>
+  <si>
+    <t>Silverstrand Beach</t>
   </si>
 </sst>
 </file>
@@ -612,7 +717,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,12 +1790,758 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2">
+        <v>22.315546999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>113.93539</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>"{"&amp;""""&amp;"type"&amp;""""&amp;": "&amp;""""&amp;"circle"&amp;""""&amp;", "&amp;""""&amp;"title"&amp;""""&amp;": "&amp;""""&amp;A2&amp;""""&amp;", "&amp;""""&amp;"latitude"&amp;""""&amp;": "&amp;B2&amp;", "&amp;""""&amp;"longitude"&amp;""""&amp;": "&amp;C2&amp;", "&amp;""""&amp;"scale"&amp;""""&amp;": "&amp;D2&amp;"}, "</f>
+        <v xml:space="preserve">{"type": "circle", "title": "Hong Kong International Airport", "latitude": 22.315547, "longitude": 113.93539, "scale": 0.5}, </v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2">
+        <v>22.368413</v>
+      </c>
+      <c r="C3" s="2">
+        <v>114.078033</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E35" si="0">"{"&amp;""""&amp;"type"&amp;""""&amp;": "&amp;""""&amp;"circle"&amp;""""&amp;", "&amp;""""&amp;"title"&amp;""""&amp;": "&amp;""""&amp;A3&amp;""""&amp;", "&amp;""""&amp;"latitude"&amp;""""&amp;": "&amp;B3&amp;", "&amp;""""&amp;"longitude"&amp;""""&amp;": "&amp;C3&amp;", "&amp;""""&amp;"scale"&amp;""""&amp;": "&amp;D3&amp;"}, "</f>
+        <v xml:space="preserve">{"type": "circle", "title": "Royal View Hotel", "latitude": 22.368413, "longitude": 114.078033, "scale": 0.5}, </v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2">
+        <v>22.337857</v>
+      </c>
+      <c r="C4" s="2">
+        <v>114.181962</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Hong Kong Baptist University", "latitude": 22.337857, "longitude": 114.181962, "scale": 0.5}, </v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2">
+        <v>22.329892999999998</v>
+      </c>
+      <c r="C5" s="3">
+        <v>114.19299599999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Regal Oriental Hotel", "latitude": 22.329893, "longitude": 114.192996, "scale": 0.5}, </v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2">
+        <v>22.287590999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>114.14756300000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "ibis Central and Sheung Wan", "latitude": 22.287591, "longitude": 114.147563, "scale": 0.5}, </v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2">
+        <v>22.249687000000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>114.16905300000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Ovolo Southside", "latitude": 22.249687, "longitude": 114.169053, "scale": 0.5}, </v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2">
+        <v>22.236719999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>114.196825</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Repulse Bay", "latitude": 22.23672, "longitude": 114.196825, "scale": 0.5}, </v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22.228653000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>114.25084200000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Shek O Bay", "latitude": 22.228653, "longitude": 114.250842, "scale": 0.5}, </v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22.218513999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>114.210928</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Stanley Promenade", "latitude": 22.218514, "longitude": 114.210928, "scale": 0.5}, </v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2">
+        <v>22.265761999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>114.252166</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Siu Sai Wan Promenade ", "latitude": 22.265762, "longitude": 114.252166, "scale": 0.5}, </v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2">
+        <v>22.244854</v>
+      </c>
+      <c r="C12" s="2">
+        <v>114.152796</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Ap Lei Chau", "latitude": 22.244854, "longitude": 114.152796, "scale": 0.5}, </v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="2">
+        <v>22.205452000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>114.131675</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Sok Kwu Wan", "latitude": 22.205452, "longitude": 114.131675, "scale": 0.5}, </v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="2">
+        <v>22.218764</v>
+      </c>
+      <c r="C14" s="2">
+        <v>114.119576</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Hung Shing Ye Beach", "latitude": 22.218764, "longitude": 114.119576, "scale": 0.5}, </v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2">
+        <v>22.226130999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>114.108486</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Yung Shue Wan", "latitude": 22.226131, "longitude": 114.108486, "scale": 0.5}, </v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="2">
+        <v>22.247719</v>
+      </c>
+      <c r="C16" s="2">
+        <v>114.152486</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Aberdeen Promenade", "latitude": 22.247719, "longitude": 114.152486, "scale": 0.5}, </v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2">
+        <v>22.282827000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>114.228369</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Shau Kei Wan", "latitude": 22.282827, "longitude": 114.228369, "scale": 0.5}, </v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2">
+        <v>22.288968000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>114.219832</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Quarry Bay", "latitude": 22.288968, "longitude": 114.219832, "scale": 0.5}, </v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2">
+        <v>22.287718000000002</v>
+      </c>
+      <c r="C19" s="2">
+        <v>114.19177500000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Causeway Bay", "latitude": 22.287718, "longitude": 114.191775, "scale": 0.5}, </v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="2">
+        <v>22.277996999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>114.173484</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Wan Chai", "latitude": 22.277997, "longitude": 114.173484, "scale": 0.5}, </v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2">
+        <v>22.275675</v>
+      </c>
+      <c r="C21" s="2">
+        <v>114.145511</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Victoria Peak", "latitude": 22.275675, "longitude": 114.145511, "scale": 0.5}, </v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="2">
+        <v>22.293292999999998</v>
+      </c>
+      <c r="C22" s="2">
+        <v>114.201295</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "North Point", "latitude": 22.293293, "longitude": 114.201295, "scale": 0.5}, </v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22.317758000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <v>114.19366100000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Kowloon Bay", "latitude": 22.317758, "longitude": 114.193661, "scale": 0.5}, </v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="2">
+        <v>22.293233000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>114.171463</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Tsim Sha Tsui", "latitude": 22.293233, "longitude": 114.171463, "scale": 0.5}, </v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22.299447000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>114.167288</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "China Hong Kong Ferry Terminal", "latitude": 22.299447, "longitude": 114.167288, "scale": 0.5}, </v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2">
+        <v>22.254411999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>113.90516599999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Tian Tan Buddha", "latitude": 22.254412, "longitude": 113.905166, "scale": 0.5}, </v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2">
+        <v>22.331835000000002</v>
+      </c>
+      <c r="C27" s="2">
+        <v>114.190229</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Kowloon Walled City", "latitude": 22.331835, "longitude": 114.190229, "scale": 0.5}, </v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="2">
+        <v>22.259283</v>
+      </c>
+      <c r="C28" s="2">
+        <v>114.234398</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Sai Wan War Cemetery", "latitude": 22.259283, "longitude": 114.234398, "scale": 0.5}, </v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="2">
+        <v>22.361471000000002</v>
+      </c>
+      <c r="C29" s="2">
+        <v>114.171836</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Hen Keng", "latitude": 22.361471, "longitude": 114.171836, "scale": 0.5}, </v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="2">
+        <v>22.377524000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>114.186285</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Hong Kong Heritage Museum", "latitude": 22.377524, "longitude": 114.186285, "scale": 0.5}, </v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="2">
+        <v>22.329070999999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>114.16349700000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Sham Shui Po", "latitude": 22.329071, "longitude": 114.163497, "scale": 0.5}, </v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="2">
+        <v>22.400369999999999</v>
+      </c>
+      <c r="C32" s="2">
+        <v>114.20618899999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Sha Tin Racecourse", "latitude": 22.40037, "longitude": 114.206189, "scale": 0.5}, </v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="2">
+        <v>22.371098</v>
+      </c>
+      <c r="C33" s="2">
+        <v>113.989288</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Hong Kong Gold Coast", "latitude": 22.371098, "longitude": 113.989288, "scale": 0.5}, </v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="2">
+        <v>22.373539000000001</v>
+      </c>
+      <c r="C34" s="2">
+        <v>113.958817</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Butterfly Beach", "latitude": 22.373539, "longitude": 113.958817, "scale": 0.5}, </v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="2">
+        <v>22.322392000000001</v>
+      </c>
+      <c r="C35" s="2">
+        <v>114.27094700000001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Silverstrand Beach", "latitude": 22.322392, "longitude": 114.270947, "scale": 0.5}, </v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1700,7 +2551,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/tab/funtry.xlsx
+++ b/assets/tab/funtry.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28427"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28506"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
   <si>
     <t>title</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Silverstrand Beach</t>
+  </si>
+  <si>
+    <t>Ibis North Point</t>
   </si>
 </sst>
 </file>
@@ -1790,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1862,7 +1865,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E35" si="0">"{"&amp;""""&amp;"type"&amp;""""&amp;": "&amp;""""&amp;"circle"&amp;""""&amp;", "&amp;""""&amp;"title"&amp;""""&amp;": "&amp;""""&amp;A3&amp;""""&amp;", "&amp;""""&amp;"latitude"&amp;""""&amp;": "&amp;B3&amp;", "&amp;""""&amp;"longitude"&amp;""""&amp;": "&amp;C3&amp;", "&amp;""""&amp;"scale"&amp;""""&amp;": "&amp;D3&amp;"}, "</f>
+        <f t="shared" ref="E3:E36" si="0">"{"&amp;""""&amp;"type"&amp;""""&amp;": "&amp;""""&amp;"circle"&amp;""""&amp;", "&amp;""""&amp;"title"&amp;""""&amp;": "&amp;""""&amp;A3&amp;""""&amp;", "&amp;""""&amp;"latitude"&amp;""""&amp;": "&amp;B3&amp;", "&amp;""""&amp;"longitude"&amp;""""&amp;": "&amp;C3&amp;", "&amp;""""&amp;"scale"&amp;""""&amp;": "&amp;D3&amp;"}, "</f>
         <v xml:space="preserve">{"type": "circle", "title": "Royal View Hotel", "latitude": 22.368413, "longitude": 114.078033, "scale": 0.5}, </v>
       </c>
       <c r="F3" s="2">
@@ -2538,6 +2541,27 @@
         <v xml:space="preserve">{"type": "circle", "title": "Silverstrand Beach", "latitude": 22.322392, "longitude": 114.270947, "scale": 0.5}, </v>
       </c>
       <c r="F35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="2">
+        <v>22.292532999999999</v>
+      </c>
+      <c r="C36" s="2">
+        <v>114.20076400000001</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">{"type": "circle", "title": "Ibis North Point", "latitude": 22.292533, "longitude": 114.200764, "scale": 0.5}, </v>
+      </c>
+      <c r="F36" s="2">
         <v>2</v>
       </c>
     </row>
